--- a/FINAL450(AutoRecovered).xlsx
+++ b/FINAL450(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E09A88-F3CD-452B-BC03-98FC44C05496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E067B-DBA2-4C17-AB3E-5F7B003CB8A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1855,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1966,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1977,7 +1976,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">

--- a/FINAL450(AutoRecovered).xlsx
+++ b/FINAL450(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E067B-DBA2-4C17-AB3E-5F7B003CB8A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436109E-DAA5-4A07-B69A-098F07B41505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/FINAL450(AutoRecovered).xlsx
+++ b/FINAL450(AutoRecovered).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436109E-DAA5-4A07-B69A-098F07B41505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55479A5F-8E40-443A-875C-AA8E73701C30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>&lt;yes&gt;</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4096,7 +4099,7 @@
         <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
